--- a/cctu_package_wishlist.xlsx
+++ b/cctu_package_wishlist.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>One table per page makes long tables.</t>
   </si>
@@ -74,13 +74,28 @@
     <t>Better Headers</t>
   </si>
   <si>
+    <t>Also put Section into the Header of the word page itself</t>
+  </si>
+  <si>
+    <t>Put Macro download date into the front page</t>
+  </si>
+  <si>
+    <t>Or allow general fields into the front page.</t>
+  </si>
+  <si>
+    <t>try using "table:" syntax in markdown..</t>
+  </si>
+  <si>
+    <t>see V:\STATISTICS\STUDY FOLDER\Core\Profile\Statistics\3 Analysis\DMC\Autumn19\Data  for some work done so far</t>
+  </si>
+  <si>
     <r>
       <t>.</t>
     </r>
     <r>
       <rPr>
         <sz val="7"/>
-        <color rgb="FF1F497D"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -89,7 +104,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF1F497D"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -104,7 +119,7 @@
     <r>
       <rPr>
         <sz val="7"/>
-        <color rgb="FF1F497D"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -113,7 +128,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF1F497D"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -128,7 +143,7 @@
     <r>
       <rPr>
         <sz val="7"/>
-        <color rgb="FF1F497D"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -137,7 +152,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF1F497D"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -152,7 +167,7 @@
     <r>
       <rPr>
         <sz val="7"/>
-        <color rgb="FF1F497D"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -161,7 +176,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF1F497D"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -176,7 +191,7 @@
     <r>
       <rPr>
         <sz val="7"/>
-        <color rgb="FF1F497D"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -185,7 +200,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF1F497D"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -194,26 +209,14 @@
     </r>
   </si>
   <si>
-    <t>Also put Section into the Header of the word page itself</t>
-  </si>
-  <si>
-    <t>Put Macro download date into the front page</t>
-  </si>
-  <si>
-    <t>Or allow general fields into the front page.</t>
-  </si>
-  <si>
-    <t>try using "table:" syntax in markdown..</t>
-  </si>
-  <si>
-    <t>see V:\STATISTICS\STUDY FOLDER\Core\Profile\Statistics\3 Analysis\DMC\Autumn19\Data  for some work done so far</t>
+    <t>No- create a table for each data file, and use file.info() to get dates/times</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,8 +232,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="7"/>
-      <color rgb="FF1F497D"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -255,13 +265,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,7 +581,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +615,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -645,51 +656,54 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+    </row>
+    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+      <c r="C21" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
